--- a/hardware/jlcpcb/badge_top_bom.xlsx
+++ b/hardware/jlcpcb/badge_top_bom.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/51c118854276e9fd/Documents/GitHub/citizen_science_badge/hardware/jlcpcb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B14B51B1-D848-4695-9D48-29B8A612DAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:40009_{B14B51B1-D848-4695-9D48-29B8A612DAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7AE792D-2AA9-4275-8B9D-D0275E0BA7E2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="badge_top_bom" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="99">
   <si>
     <t>Comment</t>
   </si>
@@ -248,12 +248,81 @@
   </si>
   <si>
     <t>C2857982</t>
+  </si>
+  <si>
+    <t>C5204743</t>
+  </si>
+  <si>
+    <t>C3017736</t>
+  </si>
+  <si>
+    <t>C5182052</t>
+  </si>
+  <si>
+    <t>C2904521</t>
+  </si>
+  <si>
+    <t>C269716</t>
+  </si>
+  <si>
+    <t>C3017715</t>
+  </si>
+  <si>
+    <t>C176155</t>
+  </si>
+  <si>
+    <t>C913896</t>
+  </si>
+  <si>
+    <t>C1953983</t>
+  </si>
+  <si>
+    <t>C1952895</t>
+  </si>
+  <si>
+    <t>C881316</t>
+  </si>
+  <si>
+    <t>C881395</t>
+  </si>
+  <si>
+    <t>C84266</t>
+  </si>
+  <si>
+    <t>C3664478</t>
+  </si>
+  <si>
+    <t>C2836813</t>
+  </si>
+  <si>
+    <t>C2155359</t>
+  </si>
+  <si>
+    <t>C2895290</t>
+  </si>
+  <si>
+    <t>C3746120</t>
+  </si>
+  <si>
+    <t>MDT420E01001</t>
+  </si>
+  <si>
+    <t>C160404</t>
+  </si>
+  <si>
+    <t>C2886923</t>
+  </si>
+  <si>
+    <t>C2040</t>
+  </si>
+  <si>
+    <t>C2886434</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1087,11 +1156,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1154,6 +1223,9 @@
       <c r="C4" t="s">
         <v>70</v>
       </c>
+      <c r="D4" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1165,6 +1237,9 @@
       <c r="C5">
         <v>603</v>
       </c>
+      <c r="D5" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1176,6 +1251,9 @@
       <c r="C6" t="s">
         <v>11</v>
       </c>
+      <c r="D6" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1187,6 +1265,9 @@
       <c r="C7">
         <v>603</v>
       </c>
+      <c r="D7" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1198,6 +1279,9 @@
       <c r="C8">
         <v>603</v>
       </c>
+      <c r="D8" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1209,6 +1293,9 @@
       <c r="C9">
         <v>603</v>
       </c>
+      <c r="D9" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1220,6 +1307,9 @@
       <c r="C10">
         <v>603</v>
       </c>
+      <c r="D10" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1231,6 +1321,9 @@
       <c r="C11" t="s">
         <v>21</v>
       </c>
+      <c r="D11" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1242,6 +1335,9 @@
       <c r="C12" t="s">
         <v>24</v>
       </c>
+      <c r="D12" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1253,6 +1349,9 @@
       <c r="C13" t="s">
         <v>24</v>
       </c>
+      <c r="D13" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1264,6 +1363,9 @@
       <c r="C14">
         <v>603</v>
       </c>
+      <c r="D14" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1275,6 +1377,9 @@
       <c r="C15">
         <v>603</v>
       </c>
+      <c r="D15" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1286,8 +1391,11 @@
       <c r="C16" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1297,8 +1405,11 @@
       <c r="C17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1308,8 +1419,11 @@
       <c r="C18" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1319,8 +1433,11 @@
       <c r="C19" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -1330,8 +1447,11 @@
       <c r="C20" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -1341,8 +1461,11 @@
       <c r="C21" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -1352,8 +1475,11 @@
       <c r="C22" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -1363,8 +1489,11 @@
       <c r="C23" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -1374,16 +1503,22 @@
       <c r="C24" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>71</v>
       </c>
       <c r="B25" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -1393,8 +1528,11 @@
       <c r="C26" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -1404,8 +1542,11 @@
       <c r="C27" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -1415,8 +1556,11 @@
       <c r="C28" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -1425,6 +1569,9 @@
       </c>
       <c r="C29" t="s">
         <v>67</v>
+      </c>
+      <c r="D29" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
